--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
   <si>
     <t>Понедельник</t>
   </si>
@@ -1328,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,6 +1412,16 @@
         <v>80</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
